--- a/results/escherichia_coli/ICA_Study/reaction_sensitivity_EX_glc__D_e10.0-EX_ade_e8.33.xlsx
+++ b/results/escherichia_coli/ICA_Study/reaction_sensitivity_EX_glc__D_e10.0-EX_ade_e8.33.xlsx
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>795</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>789</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>786</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>780</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>769</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7">
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>766</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8">
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>760</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>759</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>749</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>748</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12">
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>734</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>682</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14">
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>682</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15">
@@ -597,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>672</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16">
@@ -608,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>660</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17">
@@ -619,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>649</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18">
@@ -630,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>648</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>631</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20">
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>626</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>550</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3">
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>549</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4">
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>545</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>547</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6">
@@ -738,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>542</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8">
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>543</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>536</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>545</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11">
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>543</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12">
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>545</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13">
@@ -815,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>538</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>534</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15">
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>540</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16">
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>539</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17">
@@ -859,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>530</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18">
@@ -870,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>525</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19">
@@ -881,7 +881,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>523</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>519</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
